--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,8 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="assembly" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="javaScript" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="cpp" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="java" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="python" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="assembly" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="javaScript" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t xml:space="preserve">dimension</t>
   </si>
@@ -133,13 +136,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -153,151 +156,146 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>5200</v>
+      <c r="B2" s="0" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>215768</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>6612</v>
+      <c r="B3" s="0" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>507472</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>8892</v>
+      <c r="B4" s="0" t="n">
+        <v>2.942</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>917692</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>2.859</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>11368</v>
+      <c r="B5" s="0" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1600000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>4.867</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>14680</v>
+      <c r="B6" s="0" t="n">
+        <v>17.738</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2300000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>6.555</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>18148</v>
+      <c r="B7" s="0" t="n">
+        <v>31.907</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3200000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>10.352</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>22044</v>
+      <c r="B8" s="0" t="n">
+        <v>22.711</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3400000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>14.467</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>26392</v>
+      <c r="B9" s="0" t="n">
+        <v>26.392</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3400000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>15.862</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>26596</v>
+      <c r="B10" s="0" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3400000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>14.014</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>26572</v>
+      <c r="B11" s="0" t="n">
+        <v>10.298</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3400000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>13.916</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>26364</v>
+      <c r="B12" s="0" t="n">
+        <v>9.056</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3400000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>13.921</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>26612</v>
+      <c r="B13" s="0" t="n">
+        <v>15.059</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3400000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>14.914</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>26145</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="1" t="s">
-        <v>3</v>
+      <c r="B14" s="0" t="n">
+        <v>20.206</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3400000</v>
       </c>
     </row>
   </sheetData>
@@ -305,8 +303,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Nimbus Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Nimbus Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -319,7 +317,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -336,6 +334,545 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>25624</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>39788</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>40012</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>40136</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>41948</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>46364</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>48180</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2.755</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>54336</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>52232</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>12.603</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>57988</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>21.387</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>60392</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>29.109</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>84940</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2.859</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>11368</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4.867</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6.555</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>18148</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>10.352</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>22044</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>14.467</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>26392</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>22.197</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>30124</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>34.0135</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>35061</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>38692</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>80.67</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>41002</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>128.92</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>48992</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2.859</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>11368</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4.867</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6.555</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>18148</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>10.352</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>22044</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>14.467</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>26392</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>22.197</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>30124</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>34.0135</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>35061</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>38692</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>80.67</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>41002</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>128.92</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>48992</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Nimbus Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Nimbus Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>300</v>
       </c>
@@ -483,8 +1020,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cpp" sheetId="1" state="visible" r:id="rId2"/>
@@ -138,8 +138,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -672,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cpp" sheetId="1" state="visible" r:id="rId2"/>
@@ -139,7 +139,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -494,7 +494,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -672,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -303,8 +303,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -481,8 +481,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -516,10 +516,10 @@
         <v>300</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.333</v>
+        <v>2.547</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5200</v>
+        <v>10424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,10 +527,10 @@
         <v>400</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.775</v>
+        <v>6.512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>6612</v>
+        <v>14980</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,10 +538,10 @@
         <v>500</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.59</v>
+        <v>12.62</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>8892</v>
+        <v>18652</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,10 +549,10 @@
         <v>600</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2.859</v>
+        <v>18.42</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>11368</v>
+        <v>25420</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,10 +560,10 @@
         <v>700</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>4.867</v>
+        <v>36.178</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>14680</v>
+        <v>30562</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,10 +571,10 @@
         <v>800</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>6.555</v>
+        <v>55.411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>18148</v>
+        <v>38588</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,10 +582,10 @@
         <v>900</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>10.352</v>
+        <v>64.012</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>22044</v>
+        <v>46721</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,10 +593,10 @@
         <v>1000</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>14.467</v>
+        <v>94.12</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>26392</v>
+        <v>56962</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,10 +604,10 @@
         <v>1100</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>22.197</v>
+        <v>122.42</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>30124</v>
+        <v>65102</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,10 +615,10 @@
         <v>1200</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>34.0135</v>
+        <v>178.1</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>35061</v>
+        <v>75612</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,10 +626,10 @@
         <v>1300</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>55.14</v>
+        <v>256.12</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>38692</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,10 +637,10 @@
         <v>1400</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>80.67</v>
+        <v>320.13</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>41002</v>
+        <v>118232</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,10 +648,10 @@
         <v>1500</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>128.92</v>
+        <v>502.12</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>48992</v>
+        <v>135600</v>
       </c>
     </row>
   </sheetData>
@@ -659,8 +659,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1020,8 +1020,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>